--- a/output/SCENARIO 1/sch1-arr45-mm3-res.xlsx
+++ b/output/SCENARIO 1/sch1-arr45-mm3-res.xlsx
@@ -15,18 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>stat</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>Stage_1/2</t>
-  </si>
-  <si>
-    <t>Stage_3/4</t>
+    <t>no_cancer</t>
+  </si>
+  <si>
+    <t>cancer</t>
+  </si>
+  <si>
+    <t>stage_1_2</t>
+  </si>
+  <si>
+    <t>stage_3_4</t>
   </si>
   <si>
     <t>1</t>
@@ -44,82 +47,49 @@
     <t>5</t>
   </si>
   <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>unique_arrivals</t>
+  </si>
+  <si>
+    <t>total_scanned</t>
+  </si>
+  <si>
+    <t>total_returns</t>
+  </si>
+  <si>
+    <t>effective_arr_rate</t>
+  </si>
+  <si>
+    <t>Wait Time</t>
+  </si>
+  <si>
+    <t>Time in System</t>
+  </si>
+  <si>
+    <t>Service Time</t>
+  </si>
+  <si>
+    <t>Queue Size</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>Percentage of Total Scans</t>
-  </si>
-  <si>
-    <t>Pecentage of all Cancer Results</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>unique_arrivals</t>
-  </si>
-  <si>
-    <t>total_scanned</t>
-  </si>
-  <si>
-    <t>total_returns</t>
-  </si>
-  <si>
-    <t>Wait Time</t>
-  </si>
-  <si>
-    <t>Time in System</t>
-  </si>
-  <si>
-    <t>Service Time</t>
-  </si>
-  <si>
-    <t>Queue Size</t>
   </si>
   <si>
     <t>avg_max</t>
@@ -199,260 +169,108 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>65606.03333333334</v>
       </c>
       <c r="D2" t="n">
+        <v>5484.266666666666</v>
+      </c>
+      <c r="E2" t="n">
         <v>3641.266666666667</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1843.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>366.44183650373475</v>
       </c>
       <c r="D3" t="n">
+        <v>78.80046093569607</v>
+      </c>
+      <c r="E3" t="n">
         <v>62.72212024330884</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>42.21619235023126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65581.5</v>
       </c>
       <c r="D4" t="n">
+        <v>5496.5</v>
+      </c>
+      <c r="E4" t="n">
         <v>3647.0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1845.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>66322.0</v>
       </c>
       <c r="D5" t="n">
+        <v>5660.0</v>
+      </c>
+      <c r="E5" t="n">
         <v>3762.0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1933.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>64850.0</v>
       </c>
       <c r="D6" t="n">
+        <v>5361.0</v>
+      </c>
+      <c r="E6" t="n">
         <v>3534.0</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1760.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.1220830290240675</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.5924779280757524</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.08716882111630522</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.057818108791375306</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5.141946730123131</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.5926466627957323</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5.335413416536661</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.7253757437329047</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4.951530790152731</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.4703487964067654</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="n">
-        <v>66.39457369268352</v>
-      </c>
-      <c r="E12" t="n">
-        <v>33.60542630731648</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.6111815303815312</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.6111815303815317</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="n">
-        <v>66.38050398093247</v>
-      </c>
-      <c r="E14" t="n">
-        <v>33.619496019067526</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="n">
-        <v>67.72418852008069</v>
-      </c>
-      <c r="E15" t="n">
-        <v>34.93583950840412</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="n">
-        <v>65.06416049159589</v>
-      </c>
-      <c r="E16" t="n">
-        <v>32.275811479919305</v>
       </c>
     </row>
   </sheetData>
@@ -471,24 +289,27 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>87063.43333333333</v>
@@ -499,13 +320,16 @@
       <c r="E2" t="n">
         <v>20033.866666666665</v>
       </c>
+      <c r="F2" t="n">
+        <v>99.16416666666667</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>309.9767158478457</v>
@@ -516,13 +340,16 @@
       <c r="E3" t="n">
         <v>253.8420270811035</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.32654595959718324</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>87083.0</v>
@@ -533,13 +360,16 @@
       <c r="E4" t="n">
         <v>20028.0</v>
       </c>
+      <c r="F4" t="n">
+        <v>99.12453703703704</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>87720.0</v>
@@ -550,13 +380,16 @@
       <c r="E5" t="n">
         <v>20456.0</v>
       </c>
+      <c r="F5" t="n">
+        <v>99.72777777777777</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>86488.0</v>
@@ -566,6 +399,9 @@
       </c>
       <c r="E6" t="n">
         <v>19530.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>98.3962962962963</v>
       </c>
     </row>
   </sheetData>
@@ -587,24 +423,24 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>193.02172442860078</v>
@@ -621,10 +457,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>3.4157634413014857</v>
@@ -641,10 +477,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>179.30959999999993</v>
@@ -661,10 +497,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
         <v>343.6836466666667</v>
@@ -681,10 +517,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>74.86480999999999</v>
@@ -701,10 +537,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>353.3688000000002</v>
@@ -721,10 +557,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>70.5655999999999</v>
@@ -758,15 +594,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>103.06580282684949</v>
@@ -774,10 +610,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>0.07691604671916853</v>
@@ -785,10 +621,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>102.80500000000075</v>
@@ -796,10 +632,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
         <v>111.82300000000775</v>
@@ -807,10 +643,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>51.673333333332415</v>
@@ -818,10 +654,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>114.39000000000306</v>
@@ -829,10 +665,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>5.920000000014625</v>
